--- a/Telemetry/Galot/notes_2019-06-07.xlsx
+++ b/Telemetry/Galot/notes_2019-06-07.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Galot Data Log</t>
   </si>
@@ -48,18 +48,76 @@
   </si>
   <si>
     <t>BMS not restarted after this</t>
+  </si>
+  <si>
+    <t>Spindown lap 2</t>
+  </si>
+  <si>
+    <t>SD CARD SWAP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NO </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GPS</t>
+    </r>
+  </si>
+  <si>
+    <t>around track CCW</t>
+  </si>
+  <si>
+    <t>Run 0</t>
+  </si>
+  <si>
+    <t>debugging GPS - 2 runs of ~30s no driving</t>
+  </si>
+  <si>
+    <t>installationAndSpindowns.TXT</t>
+  </si>
+  <si>
+    <t>spindowns1.TXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,9 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -375,17 +435,17 @@
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43623</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -398,8 +458,14 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -408,6 +474,44 @@
       </c>
       <c r="D4" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Telemetry/Galot/notes_2019-06-07.xlsx
+++ b/Telemetry/Galot/notes_2019-06-07.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Galot Data Log</t>
   </si>
@@ -84,6 +84,84 @@
   </si>
   <si>
     <t>spindowns1.TXT</t>
+  </si>
+  <si>
+    <t>no content</t>
+  </si>
+  <si>
+    <t>started raining</t>
+  </si>
+  <si>
+    <t>spindown</t>
+  </si>
+  <si>
+    <t>spindown lap 2</t>
+  </si>
+  <si>
+    <t>around track CW</t>
+  </si>
+  <si>
+    <t>spindowns2.TXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>spindowns3.TXT</t>
+  </si>
+  <si>
+    <t>Tires at 80PSI</t>
+  </si>
+  <si>
+    <t>No tape</t>
+  </si>
+  <si>
+    <t>No tape under wheel wells</t>
+  </si>
+  <si>
+    <t>PUMPED UP TIRES TO 100PSI</t>
+  </si>
+  <si>
+    <t>TAPED UP WHEEL HOLES</t>
+  </si>
+  <si>
+    <t>persistent wind blowing "downhil" the whole time</t>
+  </si>
+  <si>
+    <t>hood fell off - part of data may be bad</t>
+  </si>
+  <si>
+    <t>spindowns4.TXT</t>
+  </si>
+  <si>
+    <t>race sim - failed due to rain/fog on windshield</t>
+  </si>
+  <si>
+    <t>race sim (cont)</t>
+  </si>
+  <si>
+    <t>duty cycle control</t>
+  </si>
+  <si>
+    <t>3-4 laps</t>
+  </si>
+  <si>
+    <t>mi/kwh</t>
+  </si>
+  <si>
+    <t>racesim1.TXT</t>
+  </si>
+  <si>
+    <t>note to self: when we get back to duke check the calibration on the BMS</t>
+  </si>
+  <si>
+    <t>also can we increase the sampling rate on the INA?  Should buy us a couple percent</t>
+  </si>
+  <si>
+    <t>Gerry joyride</t>
+  </si>
+  <si>
+    <t>Motor controller is running tag delay_duty</t>
   </si>
 </sst>
 </file>
@@ -423,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,6 +517,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -475,6 +559,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
@@ -483,6 +570,9 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
@@ -512,6 +602,198 @@
       </c>
       <c r="D8" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>680</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>690</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>670</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Telemetry/Galot/notes_2019-06-07.xlsx
+++ b/Telemetry/Galot/notes_2019-06-07.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Galot Data Log</t>
   </si>
@@ -162,6 +162,48 @@
   </si>
   <si>
     <t>Motor controller is running tag delay_duty</t>
+  </si>
+  <si>
+    <t>test1.TXT</t>
+  </si>
+  <si>
+    <t>Cornering test</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>CCW</t>
+  </si>
+  <si>
+    <t>30m radius, CCW</t>
+  </si>
+  <si>
+    <t>accelerate to speed then spindown in a circle</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>30m radius, CW</t>
+  </si>
+  <si>
+    <t>cornering1.TXT</t>
+  </si>
+  <si>
+    <t>race sim</t>
+  </si>
+  <si>
+    <t>full 7 laps</t>
+  </si>
+  <si>
+    <t>flying start</t>
+  </si>
+  <si>
+    <t>racesim2.TXT</t>
   </si>
 </sst>
 </file>
@@ -219,11 +261,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,6 +797,9 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
       <c r="E22">
         <v>680</v>
       </c>
@@ -768,6 +814,9 @@
       <c r="C23" t="s">
         <v>35</v>
       </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
       <c r="E23">
         <v>690</v>
       </c>
@@ -794,6 +843,110 @@
       </c>
       <c r="C26" t="s">
         <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Telemetry/Galot/notes_2019-06-07.xlsx
+++ b/Telemetry/Galot/notes_2019-06-07.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>Galot Data Log</t>
   </si>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>racesim2.TXT</t>
+  </si>
+  <si>
+    <t>spindown @ 10m/s</t>
+  </si>
+  <si>
+    <t>downhill</t>
+  </si>
+  <si>
+    <t>uphill</t>
+  </si>
+  <si>
+    <t>along the wider section of the road</t>
+  </si>
+  <si>
+    <t>spindowns5.TXT</t>
+  </si>
+  <si>
+    <t>spindown on sticky</t>
+  </si>
+  <si>
+    <t>TIRE POPPED AT END</t>
   </si>
 </sst>
 </file>
@@ -544,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,6 +970,61 @@
         <v>54</v>
       </c>
     </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
